--- a/biology/Histoire de la zoologie et de la botanique/William_Henry_Sykes/William_Henry_Sykes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Henry_Sykes/William_Henry_Sykes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Henry Sykes est un militaire, un homme politique et un ornithologue britannique, né le 25 janvier 1790 à Bradford dans le Yorkshire et mort le 16 juin 1872.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il intègre l’armée de Bombay (branche militaire de la Compagnie anglaise des Indes orientales) en 1804, à 14 ans. Il participe, sous les ordres de Lord Lakes au premier siège de Bhâratpur qui se solde par un revers britannique. De 1817 à 1818, il commande un régiment indien et participe à de nombreuses batailles. À partir d’octobre 1824, il travaille pour le gouvernement de Bombay pour étudier la région du Dekkan.
 Il revient au Royaume-Uni en 1837 et obtient la direction de la Compagnie. En 1854, il est également le recteur de l’université de cette ville. Il devient membre du parlement britannique pour la ville d’Aberdeen en 1857.
